--- a/munkanaplo.xlsx
+++ b/munkanaplo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\root\google-drives\mindszenti.gergo\studies\university\subjects\23-24_2\webtervezes\gy\projektmunka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\root\google-drives\pr01.storage.mg\programming\web-projects\hirdeto-kereskedelmi-oldal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3746B1A2-C0F5-436B-AC2B-95E050EA9D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1C7D90-6FA3-4AEB-B5A5-322613EDCC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{887FEA99-DCDB-4888-A6E5-5E03AEB02C52}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Időpont</t>
   </si>
@@ -51,6 +51,54 @@
   </si>
   <si>
     <t>Problémák / nehézségek / megoldások</t>
+  </si>
+  <si>
+    <t>március 8</t>
+  </si>
+  <si>
+    <t>mindenki</t>
+  </si>
+  <si>
+    <t>február 14</t>
+  </si>
+  <si>
+    <t>csapat kialakítása</t>
+  </si>
+  <si>
+    <t>megbeszéltük, hogy mindkettőnknek ötös a célja, így jól fog menni a csapatmunka</t>
+  </si>
+  <si>
+    <t>február 18</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>csapatnév kitalálása és regisztrálása</t>
+  </si>
+  <si>
+    <t>március 5</t>
+  </si>
+  <si>
+    <t>projekttéma kiválasztása</t>
+  </si>
+  <si>
+    <t>projekt tématerv megírása és beküldése</t>
+  </si>
+  <si>
+    <t>összeültünk egy órára, és közösen megbeszéltük az alapvető funkciókat, oldalakat</t>
+  </si>
+  <si>
+    <t>március 19</t>
+  </si>
+  <si>
+    <t>Mindszenti Gergő</t>
+  </si>
+  <si>
+    <t>GitHub repo létrehozása</t>
+  </si>
+  <si>
+    <t>regisztrációs/bejelentkező oldal megalkotása</t>
   </si>
 </sst>
 </file>
@@ -563,7 +611,7 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,27 +646,85 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="A5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="A6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="A7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="4"/>
+      <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">

--- a/munkanaplo.xlsx
+++ b/munkanaplo.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\root\google-drives\pr01.storage.mg\programming\web-projects\hirdeto-kereskedelmi-oldal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1C7D90-6FA3-4AEB-B5A5-322613EDCC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3153373-80D2-4232-A52C-6C5C1DC15D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{887FEA99-DCDB-4888-A6E5-5E03AEB02C52}"/>
+    <workbookView xWindow="3825" yWindow="3045" windowWidth="23175" windowHeight="11505" xr2:uid="{887FEA99-DCDB-4888-A6E5-5E03AEB02C52}"/>
   </bookViews>
   <sheets>
     <sheet name="Munkanaplo" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>Időpont</t>
   </si>
@@ -99,6 +100,42 @@
   </si>
   <si>
     <t>regisztrációs/bejelentkező oldal megalkotása</t>
+  </si>
+  <si>
+    <t>március 21</t>
+  </si>
+  <si>
+    <t>GitHub repo megosztása és közös kódolás megkezdése</t>
+  </si>
+  <si>
+    <t>megnéztük, hogy hogyan tudunk hatékonyan és problémamentesen együtt dolgozni GitHub-al</t>
+  </si>
+  <si>
+    <t>március 22</t>
+  </si>
+  <si>
+    <t>navigation bar megírása</t>
+  </si>
+  <si>
+    <t>regisztrációs oldal szépítése</t>
+  </si>
+  <si>
+    <t>profil oldal és sidebar megírása</t>
+  </si>
+  <si>
+    <t>a sidebar kicsit trükkös volt, de megcsináltam!</t>
+  </si>
+  <si>
+    <t>history oldal elkezdése</t>
+  </si>
+  <si>
+    <t>március 23</t>
+  </si>
+  <si>
+    <t>Gyuris Áron</t>
+  </si>
+  <si>
+    <t>businesses oldal megírása</t>
   </si>
 </sst>
 </file>
@@ -610,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428C4449-062A-45E5-9BFC-994ED91BB1C8}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,27 +765,79 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="4"/>
+      <c r="A10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="4"/>
+      <c r="A11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="A12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="4"/>
+      <c r="A13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="4"/>
+      <c r="A14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">

--- a/munkanaplo.xlsx
+++ b/munkanaplo.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\root\google-drives\pr01.storage.mg\programming\web-projects\hirdeto-kereskedelmi-oldal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3153373-80D2-4232-A52C-6C5C1DC15D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5020BDC2-23F0-4E90-A9EC-06B9A641FC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="3045" windowWidth="23175" windowHeight="11505" xr2:uid="{887FEA99-DCDB-4888-A6E5-5E03AEB02C52}"/>
+    <workbookView xWindow="32625" yWindow="3045" windowWidth="23175" windowHeight="11505" xr2:uid="{887FEA99-DCDB-4888-A6E5-5E03AEB02C52}"/>
   </bookViews>
   <sheets>
     <sheet name="Munkanaplo" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>Időpont</t>
   </si>
@@ -136,6 +135,12 @@
   </si>
   <si>
     <t>businesses oldal megírása</t>
+  </si>
+  <si>
+    <t>március 24</t>
+  </si>
+  <si>
+    <t>validator hibák kijavítása</t>
   </si>
 </sst>
 </file>
@@ -647,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428C4449-062A-45E5-9BFC-994ED91BB1C8}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,7 +846,15 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="4"/>
+      <c r="A15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">

--- a/munkanaplo.xlsx
+++ b/munkanaplo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\root\google-drives\pr01.storage.mg\programming\web-projects\hirdeto-kereskedelmi-oldal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hirdeto-kereskedelmi-oldal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5020BDC2-23F0-4E90-A9EC-06B9A641FC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2380B150-D866-4927-8D5A-A0B3E9C46EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32625" yWindow="3045" windowWidth="23175" windowHeight="11505" xr2:uid="{887FEA99-DCDB-4888-A6E5-5E03AEB02C52}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{887FEA99-DCDB-4888-A6E5-5E03AEB02C52}"/>
   </bookViews>
   <sheets>
     <sheet name="Munkanaplo" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="91">
   <si>
     <t>Időpont</t>
   </si>
@@ -141,6 +141,174 @@
   </si>
   <si>
     <t>validator hibák kijavítása</t>
+  </si>
+  <si>
+    <t>április 3</t>
+  </si>
+  <si>
+    <t>businesses oldal folytatása</t>
+  </si>
+  <si>
+    <t>április 11</t>
+  </si>
+  <si>
+    <t>HTML oldalak konvertálása PHP oldalakká</t>
+  </si>
+  <si>
+    <t>header navigation bar megírása</t>
+  </si>
+  <si>
+    <t>kisebb elírások javítása</t>
+  </si>
+  <si>
+    <t>register.php elkezdése</t>
+  </si>
+  <si>
+    <t>április 12</t>
+  </si>
+  <si>
+    <t>kicsit nehezen indultam neki a php-nek, de menni fog. Holnap folytatom.</t>
+  </si>
+  <si>
+    <t>login.php megírása adatbázissal</t>
+  </si>
+  <si>
+    <t>a phpMyAdmin-t még csak egyszer használtam ez előtt, de gyorsan megtanultam a használatát</t>
+  </si>
+  <si>
+    <t>profil adatok megjelenítése a profile.php oldalon</t>
+  </si>
+  <si>
+    <t>session-be rakás izgalmas volt</t>
+  </si>
+  <si>
+    <t>regisztrált felhasználók adatbázisba, check-ek</t>
+  </si>
+  <si>
+    <t>április 13</t>
+  </si>
+  <si>
+    <t>regisztráció finomítása, tökéletesítése</t>
+  </si>
+  <si>
+    <t>április 18</t>
+  </si>
+  <si>
+    <t>password hashelés, regisztráció és login jól működik</t>
+  </si>
+  <si>
+    <t>sikeres regisztráció a login felületre küld, biztonság növelése érdekében</t>
+  </si>
+  <si>
+    <t>session fix-ek</t>
+  </si>
+  <si>
+    <t>a felhasználó meg tudja változtatni adatait</t>
+  </si>
+  <si>
+    <t>a felhasználó profilképet tud feltölteni</t>
+  </si>
+  <si>
+    <t>business lista újracsinálása megkezdődött…</t>
+  </si>
+  <si>
+    <t>április 19</t>
+  </si>
+  <si>
+    <t>business lista példákkal, szépítve, normális layout-al</t>
+  </si>
+  <si>
+    <t>CSS nem a legjobb barátom, de szerintem sikerült egész jól megcsinálni</t>
+  </si>
+  <si>
+    <t>kijelentkezés megvalósítása</t>
+  </si>
+  <si>
+    <t>business submission form kész</t>
+  </si>
+  <si>
+    <t>business submission javítások + business lista adatbázisból</t>
+  </si>
+  <si>
+    <t>dinamikusan kellett PHP-val generálni a vállalkozásoknak kis dobozokat, de megoldottam :)</t>
+  </si>
+  <si>
+    <t>business-ek alapítási évét kiírja a lista</t>
+  </si>
+  <si>
+    <t>dinamikus CCS kind of, de működik</t>
+  </si>
+  <si>
+    <t>admin page elkezdése</t>
+  </si>
+  <si>
+    <t>április 20</t>
+  </si>
+  <si>
+    <t>tesztadatok az admin táblához</t>
+  </si>
+  <si>
+    <t>vállalatok listázása kész, adminok a businesses.php lista utáni gombokkal elérik az admin funkciókat</t>
+  </si>
+  <si>
+    <t>admin rész félkész, törölni is tudnak vállalatokat</t>
+  </si>
+  <si>
+    <t>admin rész nagyjából kész, formázni kell még</t>
+  </si>
+  <si>
+    <t>kosárral próbálkozok sütikkel</t>
+  </si>
+  <si>
+    <t>április 21</t>
+  </si>
+  <si>
+    <t>business id field a vállalkozás készítésekor</t>
+  </si>
+  <si>
+    <t>vállalkozó tudja szerkeszteni a saját vállalkozását</t>
+  </si>
+  <si>
+    <t>kosár végre kész!</t>
+  </si>
+  <si>
+    <t>külön oldalt csináltam, ahol kosárba lehet adni a szolgáltatásokat, és a kosár oldalon meg lehet nézni</t>
+  </si>
+  <si>
+    <t>üzenetek elkezdése</t>
+  </si>
+  <si>
+    <t>hát ez kemény lesz.</t>
+  </si>
+  <si>
+    <t>stílusolás</t>
+  </si>
+  <si>
+    <t>folytattam az üzeneteket</t>
+  </si>
+  <si>
+    <t>először fogalmam sem volt, hogyan kezdjek neki, de most a fejemben megvan</t>
+  </si>
+  <si>
+    <t>javítások az admin részen</t>
+  </si>
+  <si>
+    <t>üzenetek KÉSZ!</t>
+  </si>
+  <si>
+    <t>bejelentkezés előfeltétele a legtöbb oldal megtekintésének</t>
+  </si>
+  <si>
+    <t>kosár tartalma adatbázisba</t>
+  </si>
+  <si>
+    <t>about page</t>
+  </si>
+  <si>
+    <t>history (látogatott vállalkozások) megvalósítása, adatbázisban tárolása</t>
+  </si>
+  <si>
+    <t>új business hozzáadása gomb</t>
   </si>
 </sst>
 </file>
@@ -650,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428C4449-062A-45E5-9BFC-994ED91BB1C8}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,72 +1026,562 @@
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="4"/>
+      <c r="A16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="4"/>
+    <row r="17" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="4"/>
+    <row r="18" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="4"/>
+    <row r="19" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="4"/>
+    <row r="20" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="4"/>
+    <row r="24" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="4"/>
+    <row r="25" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="4"/>
+    <row r="26" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="3:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="3:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="3:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="3:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="3:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="3:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/munkanaplo.xlsx
+++ b/munkanaplo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hirdeto-kereskedelmi-oldal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2380B150-D866-4927-8D5A-A0B3E9C46EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332ADF3B-2F29-4376-AA6F-FFE534574895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{887FEA99-DCDB-4888-A6E5-5E03AEB02C52}"/>
   </bookViews>
